--- a/testData/DataSheet.xlsx
+++ b/testData/DataSheet.xlsx
@@ -462,7 +462,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
